--- a/notebooks/Output/CPM/instance1_output.xlsx
+++ b/notebooks/Output/CPM/instance1_output.xlsx
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1358.12</v>
+        <v>921.67</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -535,48 +535,48 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>91859</v>
+        <v>88850</v>
       </c>
       <c r="E2" t="n">
-        <v>242229</v>
+        <v>238435</v>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>192.43</v>
+        <v>1473.4</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K2" t="n">
-        <v>41.3</v>
+        <v>40.9</v>
       </c>
       <c r="L2" t="n">
-        <v>10.66</v>
+        <v>9.6</v>
       </c>
       <c r="M2" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="N2" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O2" t="n">
-        <v>9.68</v>
+        <v>9.9</v>
       </c>
       <c r="P2" t="n">
-        <v>3.88</v>
+        <v>3.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/Output/CPM/instance1_output.xlsx
+++ b/notebooks/Output/CPM/instance1_output.xlsx
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.67</v>
+        <v>903.04</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -538,18 +538,18 @@
         <v>88850</v>
       </c>
       <c r="E2" t="n">
-        <v>238435</v>
+        <v>250000</v>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1473.4</v>
+        <v>-1745262970.13</v>
       </c>
       <c r="I2" t="n">
         <v>47</v>
